--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Cxcl17-Gpr35.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Cxcl17-Gpr35.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -85,6 +85,9 @@
     <t>Inflammatory-Mac</t>
   </si>
   <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
     <t>Neutrophils</t>
   </si>
   <si>
@@ -95,9 +98,6 @@
   </si>
   <si>
     <t>Gpr35</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T31"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,31 +528,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G2">
-        <v>0.03754200000000001</v>
+        <v>0.0726425</v>
       </c>
       <c r="H2">
-        <v>0.07508400000000001</v>
+        <v>0.145285</v>
       </c>
       <c r="I2">
-        <v>0.04538552672936967</v>
+        <v>0.1168573469276133</v>
       </c>
       <c r="J2">
-        <v>0.03072179273469128</v>
+        <v>0.08705575559074896</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -561,28 +561,28 @@
         <v>0.5</v>
       </c>
       <c r="M2">
-        <v>0.133935</v>
+        <v>0.213628</v>
       </c>
       <c r="N2">
-        <v>0.26787</v>
+        <v>0.427256</v>
       </c>
       <c r="O2">
-        <v>0.001845869694458021</v>
+        <v>0.001650945058199759</v>
       </c>
       <c r="P2">
-        <v>0.001233380500495097</v>
+        <v>0.001102838671004856</v>
       </c>
       <c r="Q2">
-        <v>0.00502818777</v>
+        <v>0.01551847199</v>
       </c>
       <c r="R2">
-        <v>0.02011275108</v>
+        <v>0.06207388796</v>
       </c>
       <c r="S2">
-        <v>8.377576835675793E-05</v>
+        <v>0.000192925059424478</v>
       </c>
       <c r="T2">
-        <v>3.789166009922017E-05</v>
+        <v>9.600845379902517E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,31 +590,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G3">
-        <v>0.03754200000000001</v>
+        <v>0.0726425</v>
       </c>
       <c r="H3">
-        <v>0.07508400000000001</v>
+        <v>0.145285</v>
       </c>
       <c r="I3">
-        <v>0.04538552672936967</v>
+        <v>0.1168573469276133</v>
       </c>
       <c r="J3">
-        <v>0.03072179273469128</v>
+        <v>0.08705575559074896</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -629,22 +629,22 @@
         <v>0.2552</v>
       </c>
       <c r="O3">
-        <v>0.001172374525020064</v>
+        <v>0.0006574062995059611</v>
       </c>
       <c r="P3">
-        <v>0.00117504275852596</v>
+        <v>0.0006587255154765274</v>
       </c>
       <c r="Q3">
-        <v>0.0031935728</v>
+        <v>0.006179455333333334</v>
       </c>
       <c r="R3">
-        <v>0.0191614368</v>
+        <v>0.03707673199999999</v>
       </c>
       <c r="S3">
-        <v>5.320883534213019E-05</v>
+        <v>7.682275601376658E-05</v>
       </c>
       <c r="T3">
-        <v>3.609942008183442E-05</v>
+        <v>5.734584747671469E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,31 +652,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G4">
-        <v>0.03754200000000001</v>
+        <v>0.0726425</v>
       </c>
       <c r="H4">
-        <v>0.07508400000000001</v>
+        <v>0.145285</v>
       </c>
       <c r="I4">
-        <v>0.04538552672936967</v>
+        <v>0.1168573469276133</v>
       </c>
       <c r="J4">
-        <v>0.03072179273469128</v>
+        <v>0.08705575559074896</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>34.96575033333334</v>
+        <v>57.166135</v>
       </c>
       <c r="N4">
-        <v>104.897251</v>
+        <v>171.498405</v>
       </c>
       <c r="O4">
-        <v>0.4818921035150293</v>
+        <v>0.4417873503221967</v>
       </c>
       <c r="P4">
-        <v>0.4829888525737852</v>
+        <v>0.4426738841576304</v>
       </c>
       <c r="Q4">
-        <v>1.312684199014</v>
+        <v>4.1526909617375</v>
       </c>
       <c r="R4">
-        <v>7.876105194084002</v>
+        <v>24.916145770425</v>
       </c>
       <c r="S4">
-        <v>0.02187092694475354</v>
+        <v>0.051626097664832</v>
       </c>
       <c r="T4">
-        <v>0.01483828342193819</v>
+        <v>0.0385373094656342</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>0.5</v>
+      </c>
+      <c r="G5">
+        <v>0.0726425</v>
+      </c>
+      <c r="H5">
+        <v>0.145285</v>
+      </c>
+      <c r="I5">
+        <v>0.1168573469276133</v>
+      </c>
+      <c r="J5">
+        <v>0.08705575559074896</v>
+      </c>
+      <c r="K5">
         <v>2</v>
       </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>0.03754200000000001</v>
-      </c>
-      <c r="H5">
-        <v>0.07508400000000001</v>
-      </c>
-      <c r="I5">
-        <v>0.04538552672936967</v>
-      </c>
-      <c r="J5">
-        <v>0.03072179273469128</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
       <c r="L5">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.360358</v>
+        <v>0.5637965</v>
       </c>
       <c r="N5">
-        <v>0.720716</v>
+        <v>1.127593</v>
       </c>
       <c r="O5">
-        <v>0.004966393484567167</v>
+        <v>0.004357092916215666</v>
       </c>
       <c r="P5">
-        <v>0.003318464407342459</v>
+        <v>0.002910557524187791</v>
       </c>
       <c r="Q5">
-        <v>0.013528560036</v>
+        <v>0.04095558725125</v>
       </c>
       <c r="R5">
-        <v>0.05411424014400001</v>
+        <v>0.163822349005</v>
       </c>
       <c r="S5">
-        <v>0.0002254023842423905</v>
+        <v>0.0005091583185060606</v>
       </c>
       <c r="T5">
-        <v>0.0001019491757198252</v>
+        <v>0.0002533807844585077</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G6">
-        <v>0.03754200000000001</v>
+        <v>0.0726425</v>
       </c>
       <c r="H6">
-        <v>0.07508400000000001</v>
+        <v>0.145285</v>
       </c>
       <c r="I6">
-        <v>0.04538552672936967</v>
+        <v>0.1168573469276133</v>
       </c>
       <c r="J6">
-        <v>0.03072179273469128</v>
+        <v>0.08705575559074896</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.261144</v>
+        <v>52.72986366666667</v>
       </c>
       <c r="N6">
-        <v>0.783432</v>
+        <v>158.189591</v>
       </c>
       <c r="O6">
-        <v>0.003599042785601563</v>
+        <v>0.4075032666131328</v>
       </c>
       <c r="P6">
-        <v>0.003607233927889928</v>
+        <v>0.4083210026430096</v>
       </c>
       <c r="Q6">
-        <v>0.009803868048000002</v>
+        <v>3.830429121405833</v>
       </c>
       <c r="R6">
-        <v>0.05882320828800001</v>
+        <v>22.982574728435</v>
       </c>
       <c r="S6">
-        <v>0.0001633444525460648</v>
+        <v>0.04761975060074658</v>
       </c>
       <c r="T6">
-        <v>0.0001108206930781807</v>
+        <v>0.03554669340865941</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,31 +838,31 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
         <v>25</v>
       </c>
-      <c r="C7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" t="s">
-        <v>24</v>
-      </c>
       <c r="E7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G7">
-        <v>0.03754200000000001</v>
+        <v>0.0726425</v>
       </c>
       <c r="H7">
-        <v>0.07508400000000001</v>
+        <v>0.145285</v>
       </c>
       <c r="I7">
-        <v>0.04538552672936967</v>
+        <v>0.1168573469276133</v>
       </c>
       <c r="J7">
-        <v>0.03072179273469128</v>
+        <v>0.08705575559074896</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>36.753039</v>
+        <v>18.63891133333333</v>
       </c>
       <c r="N7">
-        <v>110.259117</v>
+        <v>55.916734</v>
       </c>
       <c r="O7">
-        <v>0.506524215995324</v>
+        <v>0.144043938790749</v>
       </c>
       <c r="P7">
-        <v>0.5076770258319613</v>
+        <v>0.1443329914886907</v>
       </c>
       <c r="Q7">
-        <v>1.379782590138</v>
+        <v>1.353977116531667</v>
       </c>
       <c r="R7">
-        <v>8.278695540828002</v>
+        <v>8.123862699189999</v>
       </c>
       <c r="S7">
-        <v>0.0229888683441288</v>
+        <v>0.01683259252809046</v>
       </c>
       <c r="T7">
-        <v>0.01559674836377403</v>
+        <v>0.01256501763072111</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,10 +900,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
@@ -915,16 +915,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>0.09144666666666668</v>
+        <v>0.09144666666666666</v>
       </c>
       <c r="H8">
         <v>0.27434</v>
       </c>
       <c r="I8">
-        <v>0.1105523183184635</v>
+        <v>0.1471069257258558</v>
       </c>
       <c r="J8">
-        <v>0.1122505010233233</v>
+        <v>0.1643863853031357</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -933,28 +933,28 @@
         <v>0.5</v>
       </c>
       <c r="M8">
-        <v>0.133935</v>
+        <v>0.213628</v>
       </c>
       <c r="N8">
-        <v>0.26787</v>
+        <v>0.427256</v>
       </c>
       <c r="O8">
-        <v>0.001845869694458021</v>
+        <v>0.001650945058199759</v>
       </c>
       <c r="P8">
-        <v>0.001233380500495097</v>
+        <v>0.001102838671004856</v>
       </c>
       <c r="Q8">
-        <v>0.0122479093</v>
+        <v>0.01953556850666667</v>
       </c>
       <c r="R8">
-        <v>0.0734874558</v>
+        <v>0.11721341104</v>
       </c>
       <c r="S8">
-        <v>0.0002040651740361282</v>
+        <v>0.0002428654520540606</v>
       </c>
       <c r="T8">
-        <v>0.0001384475791329719</v>
+        <v>0.0001812916626990024</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,10 +962,10 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
@@ -977,16 +977,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G9">
-        <v>0.09144666666666668</v>
+        <v>0.09144666666666666</v>
       </c>
       <c r="H9">
         <v>0.27434</v>
       </c>
       <c r="I9">
-        <v>0.1105523183184635</v>
+        <v>0.1471069257258558</v>
       </c>
       <c r="J9">
-        <v>0.1122505010233233</v>
+        <v>0.1643863853031357</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -1001,22 +1001,22 @@
         <v>0.2552</v>
       </c>
       <c r="O9">
-        <v>0.001172374525020064</v>
+        <v>0.0006574062995059611</v>
       </c>
       <c r="P9">
-        <v>0.00117504275852596</v>
+        <v>0.0006587255154765274</v>
       </c>
       <c r="Q9">
-        <v>0.007779063111111112</v>
+        <v>0.007779063111111111</v>
       </c>
       <c r="R9">
-        <v>0.070011568</v>
+        <v>0.07001156799999998</v>
       </c>
       <c r="S9">
-        <v>0.0001296087216784756</v>
+        <v>9.670901967313314E-05</v>
       </c>
       <c r="T9">
-        <v>0.0001318991383683668</v>
+        <v>0.0001082855063961311</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,10 +1024,10 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
         <v>22</v>
@@ -1039,16 +1039,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>0.09144666666666668</v>
+        <v>0.09144666666666666</v>
       </c>
       <c r="H10">
         <v>0.27434</v>
       </c>
       <c r="I10">
-        <v>0.1105523183184635</v>
+        <v>0.1471069257258558</v>
       </c>
       <c r="J10">
-        <v>0.1122505010233233</v>
+        <v>0.1643863853031357</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>34.96575033333334</v>
+        <v>57.166135</v>
       </c>
       <c r="N10">
-        <v>104.897251</v>
+        <v>171.498405</v>
       </c>
       <c r="O10">
-        <v>0.4818921035150293</v>
+        <v>0.4417873503221967</v>
       </c>
       <c r="P10">
-        <v>0.4829888525737852</v>
+        <v>0.4426738841576304</v>
       </c>
       <c r="Q10">
-        <v>3.197501315482223</v>
+        <v>5.227652491966666</v>
       </c>
       <c r="R10">
-        <v>28.77751183934001</v>
+        <v>47.04887242769999</v>
       </c>
       <c r="S10">
-        <v>0.0532742892229475</v>
+        <v>0.06498997893047004</v>
       </c>
       <c r="T10">
-        <v>0.05421574069008742</v>
+        <v>0.07276955968477189</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,13 +1086,13 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -1101,46 +1101,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G11">
-        <v>0.09144666666666668</v>
+        <v>0.09144666666666666</v>
       </c>
       <c r="H11">
         <v>0.27434</v>
       </c>
       <c r="I11">
-        <v>0.1105523183184635</v>
+        <v>0.1471069257258558</v>
       </c>
       <c r="J11">
-        <v>0.1122505010233233</v>
+        <v>0.1643863853031357</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M11">
-        <v>0.360358</v>
+        <v>0.5637965</v>
       </c>
       <c r="N11">
-        <v>0.720716</v>
+        <v>1.127593</v>
       </c>
       <c r="O11">
-        <v>0.004966393484567167</v>
+        <v>0.004357092916215666</v>
       </c>
       <c r="P11">
-        <v>0.003318464407342459</v>
+        <v>0.002910557524187791</v>
       </c>
       <c r="Q11">
-        <v>0.03295353790666667</v>
+        <v>0.05155731060333334</v>
       </c>
       <c r="R11">
-        <v>0.19772122744</v>
+        <v>0.30934386362</v>
       </c>
       <c r="S11">
-        <v>0.0005490463134006128</v>
+        <v>0.0006409585440063905</v>
       </c>
       <c r="T11">
-        <v>0.0003724992923522566</v>
+        <v>0.0004784560306180748</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,13 +1148,13 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -1163,46 +1163,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>0.09144666666666668</v>
+        <v>0.09144666666666666</v>
       </c>
       <c r="H12">
         <v>0.27434</v>
       </c>
       <c r="I12">
-        <v>0.1105523183184635</v>
+        <v>0.1471069257258558</v>
       </c>
       <c r="J12">
-        <v>0.1122505010233233</v>
+        <v>0.1643863853031357</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M12">
-        <v>0.261144</v>
+        <v>52.72986366666667</v>
       </c>
       <c r="N12">
-        <v>0.783432</v>
+        <v>158.189591</v>
       </c>
       <c r="O12">
-        <v>0.003599042785601563</v>
+        <v>0.4075032666131328</v>
       </c>
       <c r="P12">
-        <v>0.003607233927889928</v>
+        <v>0.4083210026430096</v>
       </c>
       <c r="Q12">
-        <v>0.02388074832</v>
+        <v>4.821970266104445</v>
       </c>
       <c r="R12">
-        <v>0.21492673488</v>
+        <v>43.39773239494</v>
       </c>
       <c r="S12">
-        <v>0.0003978825236755937</v>
+        <v>0.05994655277470175</v>
       </c>
       <c r="T12">
-        <v>0.0004049138157139748</v>
+        <v>0.06712241366783646</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,13 +1210,13 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
         <v>25</v>
-      </c>
-      <c r="C13" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" t="s">
-        <v>24</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -1225,16 +1225,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>0.09144666666666668</v>
+        <v>0.09144666666666666</v>
       </c>
       <c r="H13">
         <v>0.27434</v>
       </c>
       <c r="I13">
-        <v>0.1105523183184635</v>
+        <v>0.1471069257258558</v>
       </c>
       <c r="J13">
-        <v>0.1122505010233233</v>
+        <v>0.1643863853031357</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>36.753039</v>
+        <v>18.63891133333333</v>
       </c>
       <c r="N13">
-        <v>110.259117</v>
+        <v>55.916734</v>
       </c>
       <c r="O13">
-        <v>0.506524215995324</v>
+        <v>0.144043938790749</v>
       </c>
       <c r="P13">
-        <v>0.5076770258319613</v>
+        <v>0.1443329914886907</v>
       </c>
       <c r="Q13">
-        <v>3.36094290642</v>
+        <v>1.704466311728889</v>
       </c>
       <c r="R13">
-        <v>30.24848615778</v>
+        <v>15.34019680556</v>
       </c>
       <c r="S13">
-        <v>0.05599742636272525</v>
+        <v>0.02118986100495044</v>
       </c>
       <c r="T13">
-        <v>0.05698700050766829</v>
+        <v>0.02372637875081412</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,31 +1272,31 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.04893333333333333</v>
+        <v>0.012765</v>
       </c>
       <c r="H14">
-        <v>0.1468</v>
+        <v>0.038295</v>
       </c>
       <c r="I14">
-        <v>0.05915681391394053</v>
+        <v>0.02053459109379474</v>
       </c>
       <c r="J14">
-        <v>0.06006551560189493</v>
+        <v>0.02294662326012824</v>
       </c>
       <c r="K14">
         <v>1</v>
@@ -1305,28 +1305,28 @@
         <v>0.5</v>
       </c>
       <c r="M14">
-        <v>0.133935</v>
+        <v>0.213628</v>
       </c>
       <c r="N14">
-        <v>0.26787</v>
+        <v>0.427256</v>
       </c>
       <c r="O14">
-        <v>0.001845869694458021</v>
+        <v>0.001650945058199759</v>
       </c>
       <c r="P14">
-        <v>0.001233380500495097</v>
+        <v>0.001102838671004856</v>
       </c>
       <c r="Q14">
-        <v>0.006553885999999999</v>
+        <v>0.00272696142</v>
       </c>
       <c r="R14">
-        <v>0.039323316</v>
+        <v>0.01636176852</v>
       </c>
       <c r="S14">
-        <v>0.0001091957700244354</v>
+        <v>3.39014816884532E-05</v>
       </c>
       <c r="T14">
-        <v>7.408363569556123E-05</v>
+        <v>2.530642350024895E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,31 +1334,31 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.04893333333333333</v>
+        <v>0.012765</v>
       </c>
       <c r="H15">
-        <v>0.1468</v>
+        <v>0.038295</v>
       </c>
       <c r="I15">
-        <v>0.05915681391394053</v>
+        <v>0.02053459109379474</v>
       </c>
       <c r="J15">
-        <v>0.06006551560189493</v>
+        <v>0.02294662326012824</v>
       </c>
       <c r="K15">
         <v>1</v>
@@ -1373,22 +1373,22 @@
         <v>0.2552</v>
       </c>
       <c r="O15">
-        <v>0.001172374525020064</v>
+        <v>0.0006574062995059611</v>
       </c>
       <c r="P15">
-        <v>0.00117504275852596</v>
+        <v>0.0006587255154765274</v>
       </c>
       <c r="Q15">
-        <v>0.004162595555555555</v>
+        <v>0.001085876</v>
       </c>
       <c r="R15">
-        <v>0.03746335999999999</v>
+        <v>0.009772884000000001</v>
       </c>
       <c r="S15">
-        <v>6.935394161405635E-05</v>
+        <v>1.349956954283967E-05</v>
       </c>
       <c r="T15">
-        <v>7.057954914513468E-05</v>
+        <v>1.511552623547365E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,31 +1396,31 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D16" t="s">
         <v>22</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F16">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.04893333333333333</v>
+        <v>0.012765</v>
       </c>
       <c r="H16">
-        <v>0.1468</v>
+        <v>0.038295</v>
       </c>
       <c r="I16">
-        <v>0.05915681391394053</v>
+        <v>0.02053459109379474</v>
       </c>
       <c r="J16">
-        <v>0.06006551560189493</v>
+        <v>0.02294662326012824</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>34.96575033333334</v>
+        <v>57.166135</v>
       </c>
       <c r="N16">
-        <v>104.897251</v>
+        <v>171.498405</v>
       </c>
       <c r="O16">
-        <v>0.4818921035150293</v>
+        <v>0.4417873503221967</v>
       </c>
       <c r="P16">
-        <v>0.4829888525737852</v>
+        <v>0.4426738841576304</v>
       </c>
       <c r="Q16">
-        <v>1.710990716311111</v>
+        <v>0.729725713275</v>
       </c>
       <c r="R16">
-        <v>15.3989164468</v>
+        <v>6.567531419475</v>
       </c>
       <c r="S16">
-        <v>0.02850720149423596</v>
+        <v>0.009071922589277357</v>
       </c>
       <c r="T16">
-        <v>0.02901097445981203</v>
+        <v>0.0101578708468628</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,61 +1458,61 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C17" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G17">
+        <v>0.012765</v>
+      </c>
+      <c r="H17">
+        <v>0.038295</v>
+      </c>
+      <c r="I17">
+        <v>0.02053459109379474</v>
+      </c>
+      <c r="J17">
+        <v>0.02294662326012824</v>
+      </c>
+      <c r="K17">
         <v>2</v>
       </c>
-      <c r="F17">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G17">
-        <v>0.04893333333333333</v>
-      </c>
-      <c r="H17">
-        <v>0.1468</v>
-      </c>
-      <c r="I17">
-        <v>0.05915681391394053</v>
-      </c>
-      <c r="J17">
-        <v>0.06006551560189493</v>
-      </c>
-      <c r="K17">
-        <v>1</v>
-      </c>
       <c r="L17">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M17">
-        <v>0.360358</v>
+        <v>0.5637965</v>
       </c>
       <c r="N17">
-        <v>0.720716</v>
+        <v>1.127593</v>
       </c>
       <c r="O17">
-        <v>0.004966393484567167</v>
+        <v>0.004357092916215666</v>
       </c>
       <c r="P17">
-        <v>0.003318464407342459</v>
+        <v>0.002910557524187791</v>
       </c>
       <c r="Q17">
-        <v>0.01763351813333333</v>
+        <v>0.007196862322500001</v>
       </c>
       <c r="R17">
-        <v>0.1058011088</v>
+        <v>0.043181173935</v>
       </c>
       <c r="S17">
-        <v>0.0002937960151899466</v>
+        <v>8.947112139215837E-05</v>
       </c>
       <c r="T17">
-        <v>0.0001993252756335615</v>
+        <v>6.678746698446883E-05</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,61 +1520,61 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C18" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F18">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G18">
-        <v>0.04893333333333333</v>
+        <v>0.012765</v>
       </c>
       <c r="H18">
-        <v>0.1468</v>
+        <v>0.038295</v>
       </c>
       <c r="I18">
-        <v>0.05915681391394053</v>
+        <v>0.02053459109379474</v>
       </c>
       <c r="J18">
-        <v>0.06006551560189493</v>
+        <v>0.02294662326012824</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M18">
-        <v>0.261144</v>
+        <v>52.72986366666667</v>
       </c>
       <c r="N18">
-        <v>0.783432</v>
+        <v>158.189591</v>
       </c>
       <c r="O18">
-        <v>0.003599042785601563</v>
+        <v>0.4075032666131328</v>
       </c>
       <c r="P18">
-        <v>0.003607233927889928</v>
+        <v>0.4083210026430096</v>
       </c>
       <c r="Q18">
-        <v>0.0127786464</v>
+        <v>0.673096709705</v>
       </c>
       <c r="R18">
-        <v>0.1150078176</v>
+        <v>6.057870387345001</v>
       </c>
       <c r="S18">
-        <v>0.0002129079043361418</v>
+        <v>0.008367912949286301</v>
       </c>
       <c r="T18">
-        <v>0.0002166703657753572</v>
+        <v>0.009369588216846971</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,31 +1582,31 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
         <v>25</v>
       </c>
-      <c r="C19" t="s">
-        <v>26</v>
-      </c>
-      <c r="D19" t="s">
-        <v>24</v>
-      </c>
       <c r="E19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F19">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G19">
-        <v>0.04893333333333333</v>
+        <v>0.012765</v>
       </c>
       <c r="H19">
-        <v>0.1468</v>
+        <v>0.038295</v>
       </c>
       <c r="I19">
-        <v>0.05915681391394053</v>
+        <v>0.02053459109379474</v>
       </c>
       <c r="J19">
-        <v>0.06006551560189493</v>
+        <v>0.02294662326012824</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>36.753039</v>
+        <v>18.63891133333333</v>
       </c>
       <c r="N19">
-        <v>110.259117</v>
+        <v>55.916734</v>
       </c>
       <c r="O19">
-        <v>0.506524215995324</v>
+        <v>0.144043938790749</v>
       </c>
       <c r="P19">
-        <v>0.5076770258319613</v>
+        <v>0.1443329914886907</v>
       </c>
       <c r="Q19">
-        <v>1.7984487084</v>
+        <v>0.23792570317</v>
       </c>
       <c r="R19">
-        <v>16.1860383756</v>
+        <v>2.14133132853</v>
       </c>
       <c r="S19">
-        <v>0.02996435878854</v>
+        <v>0.00295788338260763</v>
       </c>
       <c r="T19">
-        <v>0.03049388231583329</v>
+        <v>0.003311954779698282</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,31 +1644,31 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C20" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D20" t="s">
         <v>20</v>
       </c>
       <c r="E20">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G20">
-        <v>0.1638783333333333</v>
+        <v>0.1233865</v>
       </c>
       <c r="H20">
-        <v>0.491635</v>
+        <v>0.246773</v>
       </c>
       <c r="I20">
-        <v>0.1981168951538158</v>
+        <v>0.1984873735992561</v>
       </c>
       <c r="J20">
-        <v>0.2011601482488938</v>
+        <v>0.1478680522724018</v>
       </c>
       <c r="K20">
         <v>1</v>
@@ -1677,28 +1677,28 @@
         <v>0.5</v>
       </c>
       <c r="M20">
-        <v>0.133935</v>
+        <v>0.213628</v>
       </c>
       <c r="N20">
-        <v>0.26787</v>
+        <v>0.427256</v>
       </c>
       <c r="O20">
-        <v>0.001845869694458021</v>
+        <v>0.001650945058199759</v>
       </c>
       <c r="P20">
-        <v>0.001233380500495097</v>
+        <v>0.001102838671004856</v>
       </c>
       <c r="Q20">
-        <v>0.021949044575</v>
+        <v>0.026358811222</v>
       </c>
       <c r="R20">
-        <v>0.13169426745</v>
+        <v>0.105435244888</v>
       </c>
       <c r="S20">
-        <v>0.0003656979727245456</v>
+        <v>0.0003276917485587412</v>
       </c>
       <c r="T20">
-        <v>0.0002481070043268886</v>
+        <v>0.0001630746062521722</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,31 +1706,31 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C21" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D21" t="s">
         <v>21</v>
       </c>
       <c r="E21">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F21">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G21">
-        <v>0.1638783333333333</v>
+        <v>0.1233865</v>
       </c>
       <c r="H21">
-        <v>0.491635</v>
+        <v>0.246773</v>
       </c>
       <c r="I21">
-        <v>0.1981168951538158</v>
+        <v>0.1984873735992561</v>
       </c>
       <c r="J21">
-        <v>0.2011601482488938</v>
+        <v>0.1478680522724018</v>
       </c>
       <c r="K21">
         <v>1</v>
@@ -1745,22 +1745,22 @@
         <v>0.2552</v>
       </c>
       <c r="O21">
-        <v>0.001172374525020064</v>
+        <v>0.0006574062995059611</v>
       </c>
       <c r="P21">
-        <v>0.00117504275852596</v>
+        <v>0.0006587255154765274</v>
       </c>
       <c r="Q21">
-        <v>0.01394058355555555</v>
+        <v>0.01049607826666667</v>
       </c>
       <c r="R21">
-        <v>0.125465252</v>
+        <v>0.06297646959999999</v>
       </c>
       <c r="S21">
-        <v>0.0002322672008544046</v>
+        <v>0.0001304868497765442</v>
       </c>
       <c r="T21">
-        <v>0.0002363717755038712</v>
+        <v>9.740445895564797E-05</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1768,31 +1768,31 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C22" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D22" t="s">
         <v>22</v>
       </c>
       <c r="E22">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F22">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G22">
-        <v>0.1638783333333333</v>
+        <v>0.1233865</v>
       </c>
       <c r="H22">
-        <v>0.491635</v>
+        <v>0.246773</v>
       </c>
       <c r="I22">
-        <v>0.1981168951538158</v>
+        <v>0.1984873735992561</v>
       </c>
       <c r="J22">
-        <v>0.2011601482488938</v>
+        <v>0.1478680522724018</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>34.96575033333334</v>
+        <v>57.166135</v>
       </c>
       <c r="N22">
-        <v>104.897251</v>
+        <v>171.498405</v>
       </c>
       <c r="O22">
-        <v>0.4818921035150293</v>
+        <v>0.4417873503221967</v>
       </c>
       <c r="P22">
-        <v>0.4829888525737852</v>
+        <v>0.4426738841576304</v>
       </c>
       <c r="Q22">
-        <v>5.730128888376112</v>
+        <v>7.053529316177499</v>
       </c>
       <c r="R22">
-        <v>51.571159995385</v>
+        <v>42.321175897065</v>
       </c>
       <c r="S22">
-        <v>0.09547096734753879</v>
+        <v>0.08768921085482731</v>
       </c>
       <c r="T22">
-        <v>0.09715810918630575</v>
+        <v>0.06545732504224763</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1830,61 +1830,61 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C23" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E23">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F23">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G23">
-        <v>0.1638783333333333</v>
+        <v>0.1233865</v>
       </c>
       <c r="H23">
-        <v>0.491635</v>
+        <v>0.246773</v>
       </c>
       <c r="I23">
-        <v>0.1981168951538158</v>
+        <v>0.1984873735992561</v>
       </c>
       <c r="J23">
-        <v>0.2011601482488938</v>
+        <v>0.1478680522724018</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L23">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M23">
-        <v>0.360358</v>
+        <v>0.5637965</v>
       </c>
       <c r="N23">
-        <v>0.720716</v>
+        <v>1.127593</v>
       </c>
       <c r="O23">
-        <v>0.004966393484567167</v>
+        <v>0.004357092916215666</v>
       </c>
       <c r="P23">
-        <v>0.003318464407342459</v>
+        <v>0.002910557524187791</v>
       </c>
       <c r="Q23">
-        <v>0.05905486844333333</v>
+        <v>0.06956487684725</v>
       </c>
       <c r="R23">
-        <v>0.35432921066</v>
+        <v>0.278259507389</v>
       </c>
       <c r="S23">
-        <v>0.0009839264572745871</v>
+        <v>0.0008648279294675712</v>
       </c>
       <c r="T23">
-        <v>0.0006675427921396867</v>
+        <v>0.0004303784721284326</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1892,61 +1892,61 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C24" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D24" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>0.5</v>
+      </c>
+      <c r="G24">
+        <v>0.1233865</v>
+      </c>
+      <c r="H24">
+        <v>0.246773</v>
+      </c>
+      <c r="I24">
+        <v>0.1984873735992561</v>
+      </c>
+      <c r="J24">
+        <v>0.1478680522724018</v>
+      </c>
+      <c r="K24">
         <v>3</v>
       </c>
-      <c r="F24">
-        <v>1</v>
-      </c>
-      <c r="G24">
-        <v>0.1638783333333333</v>
-      </c>
-      <c r="H24">
-        <v>0.491635</v>
-      </c>
-      <c r="I24">
-        <v>0.1981168951538158</v>
-      </c>
-      <c r="J24">
-        <v>0.2011601482488938</v>
-      </c>
-      <c r="K24">
-        <v>1</v>
-      </c>
       <c r="L24">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M24">
-        <v>0.261144</v>
+        <v>52.72986366666667</v>
       </c>
       <c r="N24">
-        <v>0.783432</v>
+        <v>158.189591</v>
       </c>
       <c r="O24">
-        <v>0.003599042785601563</v>
+        <v>0.4075032666131328</v>
       </c>
       <c r="P24">
-        <v>0.003607233927889928</v>
+        <v>0.4083210026430096</v>
       </c>
       <c r="Q24">
-        <v>0.04279584347999999</v>
+        <v>6.506153323307166</v>
       </c>
       <c r="R24">
-        <v>0.38516259132</v>
+        <v>39.036919939843</v>
       </c>
       <c r="S24">
-        <v>0.0007130311822091219</v>
+        <v>0.08088425312315817</v>
       </c>
       <c r="T24">
-        <v>0.0007256317117027775</v>
+        <v>0.06037763136273606</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1954,31 +1954,31 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
         <v>25</v>
       </c>
-      <c r="C25" t="s">
-        <v>26</v>
-      </c>
-      <c r="D25" t="s">
-        <v>24</v>
-      </c>
       <c r="E25">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F25">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G25">
-        <v>0.1638783333333333</v>
+        <v>0.1233865</v>
       </c>
       <c r="H25">
-        <v>0.491635</v>
+        <v>0.246773</v>
       </c>
       <c r="I25">
-        <v>0.1981168951538158</v>
+        <v>0.1984873735992561</v>
       </c>
       <c r="J25">
-        <v>0.2011601482488938</v>
+        <v>0.1478680522724018</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>36.753039</v>
+        <v>18.63891133333333</v>
       </c>
       <c r="N25">
-        <v>110.259117</v>
+        <v>55.916734</v>
       </c>
       <c r="O25">
-        <v>0.506524215995324</v>
+        <v>0.144043938790749</v>
       </c>
       <c r="P25">
-        <v>0.5076770258319613</v>
+        <v>0.1443329914886907</v>
       </c>
       <c r="Q25">
-        <v>6.023026776255</v>
+        <v>2.299790033230333</v>
       </c>
       <c r="R25">
-        <v>54.207240986295</v>
+        <v>13.798740199382</v>
       </c>
       <c r="S25">
-        <v>0.1003510049932143</v>
+        <v>0.02859090309346779</v>
       </c>
       <c r="T25">
-        <v>0.1021243857789148</v>
+        <v>0.02134223833008184</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2016,10 +2016,10 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C26" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D26" t="s">
         <v>20</v>
@@ -2031,16 +2031,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G26">
-        <v>0.4853796666666666</v>
+        <v>0.2570363333333334</v>
       </c>
       <c r="H26">
-        <v>1.456139</v>
+        <v>0.771109</v>
       </c>
       <c r="I26">
-        <v>0.5867884458844104</v>
+        <v>0.4134849981393124</v>
       </c>
       <c r="J26">
-        <v>0.5958020423911967</v>
+        <v>0.4620537332678999</v>
       </c>
       <c r="K26">
         <v>1</v>
@@ -2049,28 +2049,28 @@
         <v>0.5</v>
       </c>
       <c r="M26">
-        <v>0.133935</v>
+        <v>0.213628</v>
       </c>
       <c r="N26">
-        <v>0.26787</v>
+        <v>0.427256</v>
       </c>
       <c r="O26">
-        <v>0.001845869694458021</v>
+        <v>0.001650945058199759</v>
       </c>
       <c r="P26">
-        <v>0.001233380500495097</v>
+        <v>0.001102838671004856</v>
       </c>
       <c r="Q26">
-        <v>0.06500932565499999</v>
+        <v>0.05491015781733334</v>
       </c>
       <c r="R26">
-        <v>0.39005595393</v>
+        <v>0.329460946904</v>
       </c>
       <c r="S26">
-        <v>0.001083135009316153</v>
+        <v>0.0006826410143178342</v>
       </c>
       <c r="T26">
-        <v>0.0007348506212404552</v>
+        <v>0.000509570725130003</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2078,10 +2078,10 @@
         <v>24</v>
       </c>
       <c r="B27" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C27" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D27" t="s">
         <v>21</v>
@@ -2093,16 +2093,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G27">
-        <v>0.4853796666666666</v>
+        <v>0.2570363333333334</v>
       </c>
       <c r="H27">
-        <v>1.456139</v>
+        <v>0.771109</v>
       </c>
       <c r="I27">
-        <v>0.5867884458844104</v>
+        <v>0.4134849981393124</v>
       </c>
       <c r="J27">
-        <v>0.5958020423911967</v>
+        <v>0.4620537332678999</v>
       </c>
       <c r="K27">
         <v>1</v>
@@ -2117,22 +2117,22 @@
         <v>0.2552</v>
       </c>
       <c r="O27">
-        <v>0.001172374525020064</v>
+        <v>0.0006574062995059611</v>
       </c>
       <c r="P27">
-        <v>0.00117504275852596</v>
+        <v>0.0006587255154765274</v>
       </c>
       <c r="Q27">
-        <v>0.0412896303111111</v>
+        <v>0.02186522408888889</v>
       </c>
       <c r="R27">
-        <v>0.3716066727999999</v>
+        <v>0.1967870168</v>
       </c>
       <c r="S27">
-        <v>0.0006879358255309973</v>
+        <v>0.0002718276425279946</v>
       </c>
       <c r="T27">
-        <v>0.0007000928754267525</v>
+        <v>0.0003043665836247513</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2140,10 +2140,10 @@
         <v>24</v>
       </c>
       <c r="B28" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C28" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D28" t="s">
         <v>22</v>
@@ -2155,16 +2155,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G28">
-        <v>0.4853796666666666</v>
+        <v>0.2570363333333334</v>
       </c>
       <c r="H28">
-        <v>1.456139</v>
+        <v>0.771109</v>
       </c>
       <c r="I28">
-        <v>0.5867884458844104</v>
+        <v>0.4134849981393124</v>
       </c>
       <c r="J28">
-        <v>0.5958020423911967</v>
+        <v>0.4620537332678999</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>34.96575033333334</v>
+        <v>57.166135</v>
       </c>
       <c r="N28">
-        <v>104.897251</v>
+        <v>171.498405</v>
       </c>
       <c r="O28">
-        <v>0.4818921035150293</v>
+        <v>0.4417873503221967</v>
       </c>
       <c r="P28">
-        <v>0.4829888525737852</v>
+        <v>0.4426738841576304</v>
       </c>
       <c r="Q28">
-        <v>16.97166424154322</v>
+        <v>14.69377373123833</v>
       </c>
       <c r="R28">
-        <v>152.744978173889</v>
+        <v>132.243963581145</v>
       </c>
       <c r="S28">
-        <v>0.2827687185055535</v>
+        <v>0.1826724417259453</v>
       </c>
       <c r="T28">
-        <v>0.2877657448156418</v>
+        <v>0.204539120795235</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2202,13 +2202,13 @@
         <v>24</v>
       </c>
       <c r="B29" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C29" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D29" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E29">
         <v>2</v>
@@ -2217,46 +2217,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G29">
-        <v>0.4853796666666666</v>
+        <v>0.2570363333333334</v>
       </c>
       <c r="H29">
-        <v>1.456139</v>
+        <v>0.771109</v>
       </c>
       <c r="I29">
-        <v>0.5867884458844104</v>
+        <v>0.4134849981393124</v>
       </c>
       <c r="J29">
-        <v>0.5958020423911967</v>
+        <v>0.4620537332678999</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L29">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M29">
-        <v>0.360358</v>
+        <v>0.5637965</v>
       </c>
       <c r="N29">
-        <v>0.720716</v>
+        <v>1.127593</v>
       </c>
       <c r="O29">
-        <v>0.004966393484567167</v>
+        <v>0.004357092916215666</v>
       </c>
       <c r="P29">
-        <v>0.003318464407342459</v>
+        <v>0.002910557524187791</v>
       </c>
       <c r="Q29">
-        <v>0.1749104459206667</v>
+        <v>0.1449161851061667</v>
       </c>
       <c r="R29">
-        <v>1.049462675524</v>
+        <v>0.8694971106370001</v>
       </c>
       <c r="S29">
-        <v>0.00291422231445963</v>
+        <v>0.001801592556354246</v>
       </c>
       <c r="T29">
-        <v>0.001977147871497129</v>
+        <v>0.001344833969941945</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2264,13 +2264,13 @@
         <v>24</v>
       </c>
       <c r="B30" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C30" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D30" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E30">
         <v>2</v>
@@ -2279,46 +2279,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G30">
-        <v>0.4853796666666666</v>
+        <v>0.2570363333333334</v>
       </c>
       <c r="H30">
-        <v>1.456139</v>
+        <v>0.771109</v>
       </c>
       <c r="I30">
-        <v>0.5867884458844104</v>
+        <v>0.4134849981393124</v>
       </c>
       <c r="J30">
-        <v>0.5958020423911967</v>
+        <v>0.4620537332678999</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M30">
-        <v>0.261144</v>
+        <v>52.72986366666667</v>
       </c>
       <c r="N30">
-        <v>0.783432</v>
+        <v>158.189591</v>
       </c>
       <c r="O30">
-        <v>0.003599042785601563</v>
+        <v>0.4075032666131328</v>
       </c>
       <c r="P30">
-        <v>0.003607233927889928</v>
+        <v>0.4083210026430096</v>
       </c>
       <c r="Q30">
-        <v>0.126753987672</v>
+        <v>13.55349081404656</v>
       </c>
       <c r="R30">
-        <v>1.140785889048</v>
+        <v>121.981417326419</v>
       </c>
       <c r="S30">
-        <v>0.002111876722834641</v>
+        <v>0.168496487437295</v>
       </c>
       <c r="T30">
-        <v>0.002149197341619638</v>
+        <v>0.1886662436428946</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2326,13 +2326,13 @@
         <v>24</v>
       </c>
       <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
         <v>25</v>
-      </c>
-      <c r="C31" t="s">
-        <v>26</v>
-      </c>
-      <c r="D31" t="s">
-        <v>24</v>
       </c>
       <c r="E31">
         <v>2</v>
@@ -2341,16 +2341,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G31">
-        <v>0.4853796666666666</v>
+        <v>0.2570363333333334</v>
       </c>
       <c r="H31">
-        <v>1.456139</v>
+        <v>0.771109</v>
       </c>
       <c r="I31">
-        <v>0.5867884458844104</v>
+        <v>0.4134849981393124</v>
       </c>
       <c r="J31">
-        <v>0.5958020423911967</v>
+        <v>0.4620537332678999</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,400 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>36.753039</v>
+        <v>18.63891133333333</v>
       </c>
       <c r="N31">
-        <v>110.259117</v>
+        <v>55.916734</v>
       </c>
       <c r="O31">
-        <v>0.506524215995324</v>
+        <v>0.144043938790749</v>
       </c>
       <c r="P31">
-        <v>0.5076770258319613</v>
+        <v>0.1443329914886907</v>
       </c>
       <c r="Q31">
-        <v>17.839177818807</v>
+        <v>4.790877426445111</v>
       </c>
       <c r="R31">
-        <v>160.552600369263</v>
+        <v>43.117896838006</v>
       </c>
       <c r="S31">
-        <v>0.2972225575067156</v>
+        <v>0.0595600077628721</v>
       </c>
       <c r="T31">
-        <v>0.3024750088657709</v>
+        <v>0.06668959755107358</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+      <c r="F32">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G32">
+        <v>0.064357</v>
+      </c>
+      <c r="H32">
+        <v>0.193071</v>
+      </c>
+      <c r="I32">
+        <v>0.1035287645141675</v>
+      </c>
+      <c r="J32">
+        <v>0.1156894503056853</v>
+      </c>
+      <c r="K32">
+        <v>1</v>
+      </c>
+      <c r="L32">
+        <v>0.5</v>
+      </c>
+      <c r="M32">
+        <v>0.213628</v>
+      </c>
+      <c r="N32">
+        <v>0.427256</v>
+      </c>
+      <c r="O32">
+        <v>0.001650945058199759</v>
+      </c>
+      <c r="P32">
+        <v>0.001102838671004856</v>
+      </c>
+      <c r="Q32">
+        <v>0.013748457196</v>
+      </c>
+      <c r="R32">
+        <v>0.082490743176</v>
+      </c>
+      <c r="S32">
+        <v>0.0001709203021561914</v>
+      </c>
+      <c r="T32">
+        <v>0.0001275867996244044</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
+      <c r="F33">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G33">
+        <v>0.064357</v>
+      </c>
+      <c r="H33">
+        <v>0.193071</v>
+      </c>
+      <c r="I33">
+        <v>0.1035287645141675</v>
+      </c>
+      <c r="J33">
+        <v>0.1156894503056853</v>
+      </c>
+      <c r="K33">
+        <v>1</v>
+      </c>
+      <c r="L33">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M33">
+        <v>0.08506666666666667</v>
+      </c>
+      <c r="N33">
+        <v>0.2552</v>
+      </c>
+      <c r="O33">
+        <v>0.0006574062995059611</v>
+      </c>
+      <c r="P33">
+        <v>0.0006587255154765274</v>
+      </c>
+      <c r="Q33">
+        <v>0.005474635466666667</v>
+      </c>
+      <c r="R33">
+        <v>0.04927171919999999</v>
+      </c>
+      <c r="S33">
+        <v>6.806046197168291E-05</v>
+      </c>
+      <c r="T33">
+        <v>7.620759278780866E-05</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>1</v>
+      </c>
+      <c r="F34">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G34">
+        <v>0.064357</v>
+      </c>
+      <c r="H34">
+        <v>0.193071</v>
+      </c>
+      <c r="I34">
+        <v>0.1035287645141675</v>
+      </c>
+      <c r="J34">
+        <v>0.1156894503056853</v>
+      </c>
+      <c r="K34">
+        <v>3</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>57.166135</v>
+      </c>
+      <c r="N34">
+        <v>171.498405</v>
+      </c>
+      <c r="O34">
+        <v>0.4417873503221967</v>
+      </c>
+      <c r="P34">
+        <v>0.4426738841576304</v>
+      </c>
+      <c r="Q34">
+        <v>3.679040950195</v>
+      </c>
+      <c r="R34">
+        <v>33.111368551755</v>
+      </c>
+      <c r="S34">
+        <v>0.04573769855684472</v>
+      </c>
+      <c r="T34">
+        <v>0.05121269832287888</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>1</v>
+      </c>
+      <c r="F35">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G35">
+        <v>0.064357</v>
+      </c>
+      <c r="H35">
+        <v>0.193071</v>
+      </c>
+      <c r="I35">
+        <v>0.1035287645141675</v>
+      </c>
+      <c r="J35">
+        <v>0.1156894503056853</v>
+      </c>
+      <c r="K35">
+        <v>2</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>0.5637965</v>
+      </c>
+      <c r="N35">
+        <v>1.127593</v>
+      </c>
+      <c r="O35">
+        <v>0.004357092916215666</v>
+      </c>
+      <c r="P35">
+        <v>0.002910557524187791</v>
+      </c>
+      <c r="Q35">
+        <v>0.0362842513505</v>
+      </c>
+      <c r="R35">
+        <v>0.217705508103</v>
+      </c>
+      <c r="S35">
+        <v>0.000451084446489239</v>
+      </c>
+      <c r="T35">
+        <v>0.0003367208000563619</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36">
+        <v>1</v>
+      </c>
+      <c r="F36">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G36">
+        <v>0.064357</v>
+      </c>
+      <c r="H36">
+        <v>0.193071</v>
+      </c>
+      <c r="I36">
+        <v>0.1035287645141675</v>
+      </c>
+      <c r="J36">
+        <v>0.1156894503056853</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>52.72986366666667</v>
+      </c>
+      <c r="N36">
+        <v>158.189591</v>
+      </c>
+      <c r="O36">
+        <v>0.4075032666131328</v>
+      </c>
+      <c r="P36">
+        <v>0.4083210026430096</v>
+      </c>
+      <c r="Q36">
+        <v>3.393535835995666</v>
+      </c>
+      <c r="R36">
+        <v>30.541822523961</v>
+      </c>
+      <c r="S36">
+        <v>0.04218830972794504</v>
+      </c>
+      <c r="T36">
+        <v>0.04723843234403607</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>1</v>
+      </c>
+      <c r="F37">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G37">
+        <v>0.064357</v>
+      </c>
+      <c r="H37">
+        <v>0.193071</v>
+      </c>
+      <c r="I37">
+        <v>0.1035287645141675</v>
+      </c>
+      <c r="J37">
+        <v>0.1156894503056853</v>
+      </c>
+      <c r="K37">
+        <v>3</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>18.63891133333333</v>
+      </c>
+      <c r="N37">
+        <v>55.916734</v>
+      </c>
+      <c r="O37">
+        <v>0.144043938790749</v>
+      </c>
+      <c r="P37">
+        <v>0.1443329914886907</v>
+      </c>
+      <c r="Q37">
+        <v>1.199544416679333</v>
+      </c>
+      <c r="R37">
+        <v>10.795899750114</v>
+      </c>
+      <c r="S37">
+        <v>0.01491269101876061</v>
+      </c>
+      <c r="T37">
+        <v>0.01669780444630179</v>
       </c>
     </row>
   </sheetData>
